--- a/Kategori.xlsx
+++ b/Kategori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Awie Azmi\Desktop\UPM\Feed Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B48E1FD-334F-44BA-9A7E-84933C59B890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAADE94-E8A4-453F-BAA8-3A17449D18B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3132" yWindow="2076" windowWidth="17280" windowHeight="8880" xr2:uid="{3CF4646B-5EAF-4666-8D1B-DB92F717DB8B}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
